--- a/example.xlsx
+++ b/example.xlsx
@@ -127,25 +127,25 @@
     <t>42508</t>
   </si>
   <si>
-    <t>43170</t>
-  </si>
-  <si>
-    <t>43617</t>
-  </si>
-  <si>
-    <t>42150</t>
-  </si>
-  <si>
-    <t>43119</t>
-  </si>
-  <si>
-    <t>42976</t>
-  </si>
-  <si>
-    <t>41750</t>
-  </si>
-  <si>
-    <t>42512</t>
+    <t>42381</t>
+  </si>
+  <si>
+    <t>42991</t>
+  </si>
+  <si>
+    <t>42424</t>
+  </si>
+  <si>
+    <t>42768</t>
+  </si>
+  <si>
+    <t>43124</t>
+  </si>
+  <si>
+    <t>42567</t>
+  </si>
+  <si>
+    <t>41820</t>
   </si>
 </sst>
 </file>

--- a/example.xlsx
+++ b/example.xlsx
@@ -127,25 +127,25 @@
     <t>42508</t>
   </si>
   <si>
-    <t>42381</t>
-  </si>
-  <si>
-    <t>42991</t>
-  </si>
-  <si>
-    <t>42424</t>
-  </si>
-  <si>
-    <t>42768</t>
-  </si>
-  <si>
-    <t>43124</t>
-  </si>
-  <si>
-    <t>42567</t>
-  </si>
-  <si>
-    <t>41820</t>
+    <t>43170</t>
+  </si>
+  <si>
+    <t>43617</t>
+  </si>
+  <si>
+    <t>42150</t>
+  </si>
+  <si>
+    <t>43119</t>
+  </si>
+  <si>
+    <t>42976</t>
+  </si>
+  <si>
+    <t>41750</t>
+  </si>
+  <si>
+    <t>42512</t>
   </si>
 </sst>
 </file>
